--- a/database.xlsx
+++ b/database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,12 +423,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1091591701</v>
+        <v>5172746353</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>26/15:14:45</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>6268680541</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>26/15:14:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1091591701</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/15:14:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>5703370328</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26/15:15:11</t>
+        </is>
       </c>
     </row>
   </sheetData>
